--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationdosage.xlsx
@@ -432,7 +432,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -967,7 +967,7 @@
 【JP Core仕様】JAMI標準用法コード(16桁)を使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMI_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMI_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -1015,7 +1015,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1037,7 +1037,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1126,7 +1126,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>Dosage.method.coding.id</t>
@@ -1258,7 +1258,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1306,7 +1306,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1809,7 +1809,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
